--- a/ArticleManage/main_working_folder/output_folders/Data 9 Textural and chemical characterization/Data9_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 9 Textural and chemical characterization/Data9_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 8 N2  0-1-0-0.4 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 8 N2  0&amp;1&amp;0&amp;0.4 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 N2  0-1-0-0.4 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 N2  0&amp;1&amp;0&amp;0.4 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 N2  0-1-0-0.4 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 N2  0&amp;1&amp;0&amp;0.4 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 9 Textural and chemical characterization/Data9_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 9 Textural and chemical characterization/Data9_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 8 N2  0&amp;1&amp;0&amp;0.4 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 8 carbon-M-0  0&amp;1&amp;0&amp;0.4 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>N2</t>
+    <t>carbon-M-0</t>
   </si>
   <si>
     <t>X</t>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki N2 z wykresu 'Figure 8' </a:t>
+              <a:t>Izoterma adsorpcji probki carbon-M-0 z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 N2  0&amp;1&amp;0&amp;0.4 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 carbon-M-0  0&amp;1&amp;0&amp;0.4 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 N2  0&amp;1&amp;0&amp;0.4 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 carbon-M-0  0&amp;1&amp;0&amp;0.4 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1271,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9539</v>
+        <v>0.9761</v>
       </c>
       <c r="B3" s="0">
         <v>0.3726</v>
@@ -1300,229 +1300,109 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9761</v>
+        <v>0.8118</v>
       </c>
       <c r="B4" s="0">
-        <v>0.3726</v>
+        <v>0.3685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8353</v>
+        <v>0.6624</v>
       </c>
       <c r="B5" s="0">
-        <v>0.3704</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8116</v>
+        <v>0.5033</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3688</v>
+        <v>0.3585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7879</v>
+        <v>0.365</v>
       </c>
       <c r="B7" s="0">
-        <v>0.3683</v>
+        <v>0.3539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6857</v>
+        <v>0.2606</v>
       </c>
       <c r="B8" s="0">
-        <v>0.3651</v>
+        <v>0.3491</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6397</v>
+        <v>0.1807</v>
       </c>
       <c r="B9" s="0">
-        <v>0.3634</v>
+        <v>0.3431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.662</v>
+        <v>0.1252</v>
       </c>
       <c r="B10" s="0">
-        <v>0.3645</v>
+        <v>0.3391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5256</v>
+        <v>0.0718</v>
       </c>
       <c r="B11" s="0">
-        <v>0.3591</v>
+        <v>0.3278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4797</v>
+        <v>0.0443</v>
       </c>
       <c r="B12" s="0">
-        <v>0.3575</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5019</v>
+        <v>0.0347</v>
       </c>
       <c r="B13" s="0">
-        <v>0.3581</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3878</v>
+        <v>0.0227</v>
       </c>
       <c r="B14" s="0">
-        <v>0.3543</v>
+        <v>0.3004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3419</v>
+        <v>0.0241</v>
       </c>
       <c r="B15" s="0">
-        <v>0.3527</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3641</v>
+        <v>0.0181</v>
       </c>
       <c r="B16" s="0">
-        <v>0.3532</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2826</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.2367</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.3478</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2589</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0.3489</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2026</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0.3457</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.1581</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0.3419</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1047</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0.336</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1225</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.3392</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1448</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.3414</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1818</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.3435</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0854</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.3317</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0557</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.3226</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0349</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.3108</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0245</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.3032</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0214</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.2935</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0169</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.2796</v>
-      </c>
-    </row>
-    <row r="32"/>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="17"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
